--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H2">
         <v>0.195479</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N2">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q2">
-        <v>0.2425784270163333</v>
+        <v>0.1519529942633333</v>
       </c>
       <c r="R2">
-        <v>2.183205843147</v>
+        <v>1.36757694837</v>
       </c>
       <c r="S2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="T2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H3">
         <v>0.195479</v>
@@ -620,13 +620,13 @@
         <v>1.746044</v>
       </c>
       <c r="N3">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q3">
         <v>0.1137716450253333</v>
@@ -635,10 +635,10 @@
         <v>1.023944805228</v>
       </c>
       <c r="S3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="T3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H4">
         <v>0.195479</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N4">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q4">
-        <v>0.08412929634488887</v>
+        <v>0.07465868631311111</v>
       </c>
       <c r="R4">
-        <v>0.757163667104</v>
+        <v>0.671928176818</v>
       </c>
       <c r="S4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="T4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H5">
         <v>0.195479</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N5">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O5">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P5">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q5">
-        <v>0.7468877704717776</v>
+        <v>0.1196254374394445</v>
       </c>
       <c r="R5">
-        <v>6.721989934245999</v>
+        <v>1.076628936955</v>
       </c>
       <c r="S5">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="T5">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
     </row>
   </sheetData>
